--- a/DailyReport/DailyReport-VoTV.xlsx
+++ b/DailyReport/DailyReport-VoTV.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>No.</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>fix bug khi click vào tin nhắn của user chưa like page</t>
+  </si>
+  <si>
+    <t>update lấy thông tin giờ địa phương theo giờ GMT</t>
+  </si>
+  <si>
+    <t>24/11/2018</t>
+  </si>
+  <si>
+    <t>auto update thời gian</t>
   </si>
 </sst>
 </file>
@@ -973,7 +982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS18" sqref="AS18:BF18"/>
+      <selection pane="bottomLeft" activeCell="AK13" sqref="AK13:AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,7 +2587,7 @@
       <c r="BZ18" s="37"/>
       <c r="CA18" s="37"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4"/>
@@ -2659,11 +2668,15 @@
       <c r="BZ19" s="37"/>
       <c r="CA19" s="37"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>12</v>
+      </c>
       <c r="B20" s="9"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -2691,7 +2704,9 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
-      <c r="AF20" s="39"/>
+      <c r="AF20" s="39" t="s">
+        <v>29</v>
+      </c>
       <c r="AG20" s="39"/>
       <c r="AH20" s="39"/>
       <c r="AI20" s="39"/>
@@ -2701,23 +2716,27 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
       <c r="AO20" s="10"/>
-      <c r="AP20" s="12"/>
+      <c r="AP20" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ20" s="12"/>
       <c r="AR20" s="12"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="10"/>
+      <c r="AS20" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="45"/>
+      <c r="BB20" s="45"/>
+      <c r="BC20" s="45"/>
+      <c r="BD20" s="45"/>
+      <c r="BE20" s="45"/>
+      <c r="BF20" s="45"/>
       <c r="BG20" s="37"/>
       <c r="BH20" s="37"/>
       <c r="BI20" s="37"/>
@@ -2741,10 +2760,14 @@
       <c r="CA20" s="37"/>
     </row>
     <row r="21" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="9">
+        <v>13</v>
+      </c>
       <c r="B21" s="9"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -2772,7 +2795,9 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
-      <c r="AF21" s="39"/>
+      <c r="AF21" s="39" t="s">
+        <v>29</v>
+      </c>
       <c r="AG21" s="39"/>
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
@@ -2782,23 +2807,27 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="10"/>
       <c r="AO21" s="10"/>
-      <c r="AP21" s="12"/>
+      <c r="AP21" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="12"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="10"/>
+      <c r="AS21" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="45"/>
+      <c r="BB21" s="45"/>
+      <c r="BC21" s="45"/>
+      <c r="BD21" s="45"/>
+      <c r="BE21" s="45"/>
+      <c r="BF21" s="45"/>
       <c r="BG21" s="37"/>
       <c r="BH21" s="37"/>
       <c r="BI21" s="37"/>
@@ -10130,13 +10159,13 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>AS33:BF102 AS10:BF10 AS13:BF13 AS15:BF15 AS19:BF31</xm:sqref>
+          <xm:sqref>AS33:BF102 AS10:BF10 AS13:BF13 AS15:BF15 AS19:BF19 AS22:BF31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Info!$D$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>AS1:BF9 AS11:BF12 AS14:BF14 AS16:BF18</xm:sqref>
+          <xm:sqref>AS1:BF9 AS11:BF12 AS14:BF14 AS16:BF18 AS20:BF21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
